--- a/databasedraff.xlsx
+++ b/databasedraff.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\old_data\Users.DELL\BTLWeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\GitHub\BTLWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
   <si>
     <t>Khoa</t>
   </si>
@@ -105,9 +106,6 @@
     <t>ĐK đề tài</t>
   </si>
   <si>
-    <t>khoá học</t>
-  </si>
-  <si>
     <t>PTN(lab)</t>
   </si>
   <si>
@@ -168,18 +166,12 @@
     <t>User</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
     <t>UserName</t>
   </si>
   <si>
-    <t>userName</t>
-  </si>
-  <si>
     <t>CT đào tạo(ngành học)</t>
   </si>
   <si>
@@ -220,6 +212,26 @@
   </si>
   <si>
     <t>Mã gv</t>
+  </si>
+  <si>
+    <t>Username key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userName </t>
+  </si>
+  <si>
+    <t>Mã khoá học</t>
+  </si>
+  <si>
+    <t>Khởi tạo danh sách 
+giảng viên</t>
+  </si>
+  <si>
+    <t>Khởi tạo danh sách 
+sinh viên</t>
+  </si>
+  <si>
+    <t>Nhập danh mục KH</t>
   </si>
 </sst>
 </file>
@@ -319,11 +331,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,6 +345,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,6 +369,768 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="266700"/>
+          <a:ext cx="8115300" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8801100" y="1743075"/>
+          <a:ext cx="723900" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4895850" y="1743075"/>
+          <a:ext cx="4591050" cy="161926"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1428750" y="2105025"/>
+          <a:ext cx="2076450" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4895850" y="1724025"/>
+          <a:ext cx="3086100" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2466975" y="1400175"/>
+          <a:ext cx="1057275" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2381250" y="542925"/>
+          <a:ext cx="1171575" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4905375" y="1914525"/>
+          <a:ext cx="781050" cy="914401"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="266700"/>
+          <a:ext cx="8115300" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8801100" y="1743075"/>
+          <a:ext cx="723900" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4895850" y="1743075"/>
+          <a:ext cx="4591050" cy="161926"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1428750" y="2105025"/>
+          <a:ext cx="2076450" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4895850" y="1724025"/>
+          <a:ext cx="3086100" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2466975" y="1400175"/>
+          <a:ext cx="1057275" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2381250" y="542925"/>
+          <a:ext cx="1171575" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4905375" y="1914525"/>
+          <a:ext cx="781050" cy="914401"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -630,237 +1410,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -875,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -886,7 +1666,7 @@
     <col min="4" max="4" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="10" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
@@ -894,235 +1674,500 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="L3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C9" s="6"/>
+      <c r="F9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="J4" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="8" t="s">
+      <c r="H12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D15" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D16" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C9" s="7"/>
-      <c r="F9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D23" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D14" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C9" s="6"/>
+      <c r="F9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/databasedraff.xlsx
+++ b/databasedraff.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\old_data\Users.DELL\BTLWeb\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>Khoa</t>
   </si>
@@ -220,6 +215,9 @@
   </si>
   <si>
     <t>Mã gv</t>
+  </si>
+  <si>
+    <t>Mã Khoa</t>
   </si>
 </sst>
 </file>
@@ -230,7 +228,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -324,9 +322,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -336,6 +331,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,7 +394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,7 +429,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -622,245 +620,245 @@
       <selection activeCell="A10" sqref="A10:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -876,250 +874,252 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="J4" s="7" t="s">
+      <c r="C4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="7" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C9" s="7"/>
-      <c r="F9" s="8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="6"/>
+      <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D14" s="7" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="7" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D16" s="7" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D17" s="7" t="s">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D21" s="9" t="s">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D22" s="10" t="s">
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D23" s="10" t="s">
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/databasedraff.xlsx
+++ b/databasedraff.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>Khoa</t>
   </si>
@@ -169,12 +169,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
     <t>CT đào tạo(ngành học)</t>
   </si>
   <si>
@@ -218,6 +212,18 @@
   </si>
   <si>
     <t>Mã Khoa</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Key</t>
   </si>
 </sst>
 </file>
@@ -349,6 +355,152 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4429125" y="1695451"/>
+          <a:ext cx="4038600" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="657225"/>
+          <a:ext cx="7286625" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7772400" y="1762126"/>
+          <a:ext cx="762000" cy="504824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -606,7 +758,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -874,7 +1026,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,7 +1065,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>35</v>
@@ -957,7 +1112,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>44</v>
@@ -968,23 +1123,23 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1010,19 +1165,28 @@
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
       <c r="J10" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>20</v>
@@ -1033,59 +1197,59 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="6" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F17" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -1098,21 +1262,21 @@
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -1124,5 +1288,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/databasedraff.xlsx
+++ b/databasedraff.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\GitHub\BTLWeb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Khoa</t>
   </si>
@@ -172,9 +177,6 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>userName</t>
-  </si>
-  <si>
     <t>CT đào tạo(ngành học)</t>
   </si>
   <si>
@@ -218,6 +220,21 @@
   </si>
   <si>
     <t>Mã Khoa</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>User_type</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -228,7 +245,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -338,8 +355,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -606,7 +651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -620,14 +665,14 @@
       <selection activeCell="A10" sqref="A10:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -640,7 +685,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -657,7 +702,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -680,7 +725,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -700,7 +745,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -718,7 +763,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -734,7 +779,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -748,7 +793,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -761,7 +806,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -772,7 +817,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -783,7 +828,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -794,7 +839,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -805,7 +850,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -816,7 +861,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -827,7 +872,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -838,7 +883,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -849,7 +894,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -874,24 +919,24 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="10" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -911,9 +956,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>35</v>
@@ -931,7 +976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -951,13 +996,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>44</v>
@@ -966,28 +1011,28 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="C7" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="6"/>
       <c r="F9" s="7" t="s">
         <v>41</v>
@@ -998,8 +1043,11 @@
       <c r="J9" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
         <v>7</v>
@@ -1013,27 +1061,33 @@
       <c r="J10" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>36</v>
@@ -1041,83 +1095,84 @@
       <c r="F12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="6"/>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D21" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D22" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D23" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.2">
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
     </row>

--- a/databasedraff.xlsx
+++ b/databasedraff.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t xml:space="preserve">Đơn vị</t>
   </si>
@@ -101,13 +101,19 @@
     <t xml:space="preserve">KhoaHoc</t>
   </si>
   <si>
+    <t xml:space="preserve">BoMon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key</t>
+  </si>
+  <si>
     <t xml:space="preserve">MonHoc</t>
   </si>
   <si>
-    <t xml:space="preserve">PTN(lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VanPhongKhoa</t>
+    <t xml:space="preserve">PhongTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vpk</t>
   </si>
   <si>
     <t xml:space="preserve">MaKhoa</t>
@@ -119,9 +125,15 @@
     <t xml:space="preserve">MaKh</t>
   </si>
   <si>
+    <t xml:space="preserve">MaBm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tên MH</t>
   </si>
   <si>
+    <t xml:space="preserve">MaPtn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tên văn phòng</t>
   </si>
   <si>
@@ -131,13 +143,13 @@
     <t xml:space="preserve">TenKh</t>
   </si>
   <si>
-    <t xml:space="preserve">Mã BM</t>
+    <t xml:space="preserve">TenBm</t>
   </si>
   <si>
     <t xml:space="preserve">Mã mh</t>
   </si>
   <si>
-    <t xml:space="preserve">Thuộc bộ môn</t>
+    <t xml:space="preserve">TenPtn</t>
   </si>
   <si>
     <t xml:space="preserve">Trưởng phòng</t>
@@ -146,9 +158,6 @@
     <t xml:space="preserve">DiaChi</t>
   </si>
   <si>
-    <t xml:space="preserve">Mã Khoa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mã phòng</t>
   </si>
   <si>
@@ -180,9 +189,6 @@
   </si>
   <si>
     <t xml:space="preserve">MaGv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">key</t>
   </si>
   <si>
     <t xml:space="preserve">Username</t>
@@ -369,7 +375,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -391,10 +397,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -499,15 +501,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>-5666760</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>962280</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -515,9 +517,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="-5666760" y="1102320"/>
-          <a:ext cx="6629040" cy="288720"/>
+        <a:xfrm>
+          <a:off x="1600200" y="271800"/>
+          <a:ext cx="11229480" cy="1321920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -537,66 +539,7 @@
         </a:custGeom>
         <a:noFill/>
         <a:ln>
-          <a:tailEnd len="med" type="arrow" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1600200" y="271800"/>
-          <a:ext cx="11163240" cy="1322280"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:tailEnd len="med" type="arrow" w="med"/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -629,13 +572,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="1" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="1573560" y="1671480"/>
-          <a:ext cx="9640080" cy="1372680"/>
+          <a:ext cx="9706680" cy="1372680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -670,13 +613,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1548360" y="2143080"/>
-          <a:ext cx="4185360" cy="1621440"/>
+          <a:ext cx="4204080" cy="1621440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -711,13 +654,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 1"/>
+        <xdr:cNvPr id="3" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6240240" y="2093040"/>
-          <a:ext cx="2280240" cy="1888920"/>
+          <a:off x="6278400" y="2093040"/>
+          <a:ext cx="2298960" cy="1888920"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -752,13 +695,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 1"/>
+        <xdr:cNvPr id="4" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10018080" y="2283480"/>
-          <a:ext cx="1146600" cy="1128240"/>
+          <a:off x="10075320" y="2283480"/>
+          <a:ext cx="1155960" cy="1128240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -793,13 +736,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 1"/>
+        <xdr:cNvPr id="5" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7557120" y="1712520"/>
-          <a:ext cx="5390280" cy="94320"/>
+          <a:off x="7614000" y="1712520"/>
+          <a:ext cx="5400000" cy="94320"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -834,12 +777,12 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Line 1"/>
+        <xdr:cNvPr id="6" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4141440" y="227520"/>
+          <a:off x="4160160" y="227520"/>
           <a:ext cx="1626840" cy="1997640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -875,12 +818,12 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Line 1"/>
+        <xdr:cNvPr id="7" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5488200" y="2265120"/>
+          <a:off x="5506920" y="2265120"/>
           <a:ext cx="280080" cy="135720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -916,13 +859,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Line 1"/>
+        <xdr:cNvPr id="8" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4101480" y="1137960"/>
-          <a:ext cx="1333440" cy="1046520"/>
+          <a:off x="4110840" y="1137960"/>
+          <a:ext cx="1342800" cy="1046520"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -957,13 +900,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Line 1"/>
+        <xdr:cNvPr id="9" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1640160" y="244800"/>
-          <a:ext cx="9524520" cy="1751040"/>
+          <a:off x="1649520" y="244800"/>
+          <a:ext cx="9581760" cy="1751040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -998,13 +941,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Line 1"/>
+        <xdr:cNvPr id="10" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="1600200" y="231120"/>
-          <a:ext cx="756000" cy="1225440"/>
+          <a:ext cx="765360" cy="1225440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1039,12 +982,12 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Line 1"/>
+        <xdr:cNvPr id="11" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7570440" y="1884240"/>
+          <a:off x="7627320" y="1884240"/>
           <a:ext cx="946800" cy="475920"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1080,13 +1023,95 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10271520" y="1616400"/>
+          <a:ext cx="1066680" cy="258480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>86760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>980640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10204920" y="1616400"/>
-          <a:ext cx="1066680" cy="258480"/>
+        <a:xfrm flipH="1">
+          <a:off x="1705680" y="121320"/>
+          <a:ext cx="6875640" cy="27000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>59760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>54720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>706320</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>81360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1678680" y="229680"/>
+          <a:ext cx="11286000" cy="377280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1117,16 +1142,16 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="A23 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1383,286 +1408,279 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>29</v>
+      <c r="A2" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="G4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>42</v>
+      <c r="K4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="7" t="s">
-        <v>44</v>
+      <c r="C6" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>45</v>
+      <c r="A7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="8"/>
+      <c r="E10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="7" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="9"/>
-      <c r="E10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="G14" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>66</v>
+      <c r="A17" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>52</v>
+      <c r="A18" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="A19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="I20" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="E21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="E22" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="E23" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
